--- a/ActiTimeMavenAutomation/Controller/data_Controller.xlsx
+++ b/ActiTimeMavenAutomation/Controller/data_Controller.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EVENING_SEPTEMBER-2019_BATCH\Automation\ActiTime-Automation\Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CurrentWorkspace\ExampleAutomation\ActiTimeMavenAutomation\Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBE3DE4-067C-4D8A-80E4-7710ED084D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -110,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,22 +593,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -632,10 +633,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -646,10 +647,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -660,10 +661,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -674,10 +675,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -688,10 +689,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -705,7 +706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
@@ -721,7 +722,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
